--- a/Bladen_Community_College_Organizations.xlsx
+++ b/Bladen_Community_College_Organizations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,40 +433,39 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="35" customWidth="1" min="2" max="2"/>
+    <col width="35" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
     <col width="27" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="50" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="14" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
-    <col width="16" customWidth="1" min="9" max="9"/>
-    <col width="15" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="13" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="9" customWidth="1" min="8" max="8"/>
+    <col width="10" customWidth="1" min="9" max="9"/>
+    <col width="11" customWidth="1" min="10" max="10"/>
+    <col width="10" customWidth="1" min="11" max="11"/>
+    <col width="9" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Category</t>
+          <t>Organization Name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Organization Name</t>
+          <t>Categories</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Organization Link</t>
+          <t>Org URL</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Logo Link</t>
+          <t>Image URL</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -481,49 +480,44 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Phone Number</t>
+          <t>Phone</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Linkedin Link</t>
+          <t>Website</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Instagram Link</t>
+          <t>LinkedIn</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Facebook Link</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Twitter Link</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Youtube Link</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Tiktok Link</t>
+          <t>Twitter</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Student Government Association</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>Student Government</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Student Government Association</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -544,17 +538,16 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Phi Theta Kappa Honor Society</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>Academic</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Phi Theta Kappa Honor Society</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -575,17 +568,16 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Student Volunteer Club</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>Service</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Student Volunteer Club</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -606,17 +598,16 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Future Teachers Association</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Student Activities Board</t>
+          <t>Academic</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -627,7 +618,7 @@
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Student Activities Board at Bladen Community College</t>
+          <t>Future Teachers Association at Bladen Community College</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -637,17 +628,16 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Academic</t>
+          <t>Business Club</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Future Teachers Association</t>
+          <t>Professional</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -658,7 +648,7 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Future Teachers Association at Bladen Community College</t>
+          <t>Business Club at Bladen Community College</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -668,17 +658,16 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Professional</t>
+          <t>Art Club</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Business Club</t>
+          <t>Arts</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -689,7 +678,7 @@
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Business Club at Bladen Community College</t>
+          <t>Art Club at Bladen Community College</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -699,17 +688,16 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>Intramural Sports</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Art Club</t>
+          <t>Athletics</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -720,7 +708,7 @@
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Art Club at Bladen Community College</t>
+          <t>Intramural Sports at Bladen Community College</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -730,17 +718,16 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Athletics</t>
+          <t>International Student Association</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Intramural Sports</t>
+          <t>Cultural</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -751,7 +738,7 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Intramural Sports at Bladen Community College</t>
+          <t>International Student Association at Bladen Community College</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -761,17 +748,16 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Cultural</t>
+          <t>Community Service Club</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>International Student Association</t>
+          <t>Service</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -782,7 +768,7 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>International Student Association at Bladen Community College</t>
+          <t>Community Service Club at Bladen Community College</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -792,38 +778,6 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Service</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Community Service Club</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>https://www.bladencc.edu/</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Community Service Club at Bladen Community College</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Bladen_Community_College_Organizations.xlsx
+++ b/Bladen_Community_College_Organizations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,39 +433,40 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="35" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="35" customWidth="1" min="2" max="2"/>
     <col width="27" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="50" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="9" customWidth="1" min="8" max="8"/>
-    <col width="10" customWidth="1" min="9" max="9"/>
-    <col width="11" customWidth="1" min="10" max="10"/>
-    <col width="10" customWidth="1" min="11" max="11"/>
-    <col width="9" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="16" customWidth="1" min="9" max="9"/>
+    <col width="15" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="13" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Organization Name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Categories</t>
-        </is>
-      </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Org URL</t>
+          <t>Organization Link</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Image URL</t>
+          <t>Logo Link</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -480,44 +481,49 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Phone</t>
+          <t>Phone Number</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Website</t>
+          <t>Linkedin Link</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>LinkedIn</t>
+          <t>Instagram Link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook Link</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Twitter Link</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Twitter</t>
+          <t>Youtube Link</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Tiktok Link</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Student Government</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>Student Government Association</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Student Government</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -538,16 +544,17 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Academic</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>Phi Theta Kappa Honor Society</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Academic</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -568,16 +575,17 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Service</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>Student Volunteer Club</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Service</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -598,16 +606,17 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>Academic</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>Future Teachers Association</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Academic</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -628,16 +637,17 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>Professional</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>Business Club</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Professional</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -658,16 +668,17 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>Arts</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>Art Club</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Arts</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -688,16 +699,17 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>Athletics</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>Intramural Sports</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Athletics</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -718,16 +730,17 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>Cultural</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>International Student Association</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Cultural</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -748,16 +761,17 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Service</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>Community Service Club</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Service</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -778,6 +792,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Bladen_Community_College_Organizations.xlsx
+++ b/Bladen_Community_College_Organizations.xlsx
@@ -436,16 +436,16 @@
     <col width="20" customWidth="1" min="1" max="1"/>
     <col width="35" customWidth="1" min="2" max="2"/>
     <col width="27" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="50" customWidth="1" min="4" max="4"/>
     <col width="50" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="14" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
-    <col width="16" customWidth="1" min="9" max="9"/>
-    <col width="15" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="30" customWidth="1" min="6" max="6"/>
+    <col width="16" customWidth="1" min="7" max="7"/>
+    <col width="45" customWidth="1" min="8" max="8"/>
+    <col width="39" customWidth="1" min="9" max="9"/>
+    <col width="38" customWidth="1" min="10" max="10"/>
+    <col width="37" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="13" customWidth="1" min="13" max="13"/>
+    <col width="37" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -537,14 +537,38 @@
           <t>Student Government Association at Bladen Community College</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>studentgovernme@bladencc.edu</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>(555) 890-1234</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://instagram.com/studentgovernme</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>https://facebook.com/studentgovernme</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>https://twitter.com/studentgovernme</t>
+        </is>
+      </c>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>https://tiktok.com/@studentgovernme</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -569,11 +593,19 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>(555) 123-4567</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>https://twitter.com/phithetakappaho</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
     </row>
@@ -599,12 +631,28 @@
           <t>Student Volunteer Club at Bladen Community College</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>studentvoluntee@bladencc.edu</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://instagram.com/studentvoluntee</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>https://facebook.com/studentvoluntee</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>https://twitter.com/studentvoluntee</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
     </row>
@@ -630,10 +678,22 @@
           <t>Future Teachers Association at Bladen Community College</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>futureteachersa@bladencc.edu</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>(555) 123-4567</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://instagram.com/futureteachersa</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
@@ -665,7 +725,11 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>https://facebook.com/businessclub</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
@@ -692,11 +756,23 @@
           <t>Art Club at Bladen Community College</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>artclub@bladencc.edu</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>(555) 123-4567</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>https://facebook.com/artclub</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
@@ -723,8 +799,16 @@
           <t>Intramural Sports at Bladen Community College</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>intramuralsport@bladencc.edu</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>(555) 789-0123</t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -754,9 +838,21 @@
           <t>International Student Association at Bladen Community College</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>internationalst@bladencc.edu</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>(555) 789-0123</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/groups/internationalst</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -779,18 +875,34 @@
           <t>https://www.bladencc.edu/</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://bladencc.edu/logos/communityservic_logo.png</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>Community Service Club at Bladen Community College</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>(555) 345-6789</t>
+        </is>
+      </c>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://instagram.com/communityservic</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>https://twitter.com/communityservic</t>
+        </is>
+      </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
     </row>
